--- a/information/theme/download/record 2024-07-20.xlsx
+++ b/information/theme/download/record 2024-07-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ0CPH672\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A784DA-8127-42A9-8A42-A23FE9FE13FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928499D-6ABA-4266-8C53-2CE2E84CDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-4428" windowWidth="30936" windowHeight="16776" xr2:uid="{A4D43D4A-E787-48F3-AFD0-C6C3F51E610E}"/>
   </bookViews>
@@ -99,7 +99,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +127,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,9 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,9 +297,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,12 +308,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,10 +317,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1791,39 +1809,39 @@
   <dimension ref="B1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1904,61 +1922,61 @@
       <c r="C4" s="4">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="19">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="19">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="19">
         <v>11</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="19">
         <v>11</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="20">
         <v>9</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="19">
         <v>11</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="20">
         <v>9</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="19">
         <v>11</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="20">
         <v>9</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="19">
         <v>13</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="19">
         <v>11</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="19">
         <v>11</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="19">
         <v>11</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="19">
         <v>11</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="19">
         <v>11</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="19">
         <v>11</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="20">
         <v>10</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="19">
         <v>11</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="19">
         <v>11</v>
       </c>
       <c r="W4" s="4">
@@ -1967,161 +1985,161 @@
       <c r="X4" s="4">
         <v>11</v>
       </c>
-      <c r="Y4" s="6"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>6</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="18">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="18">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="21">
         <v>11</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="18">
         <v>7</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="21">
         <v>11</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="18">
         <v>7</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="21">
         <v>11</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="18">
         <v>11</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="18">
         <v>8</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="18">
         <v>8</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="18">
         <v>7</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="18">
         <v>9</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="18">
         <v>5</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="18">
         <v>8</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="21">
         <v>12</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="18">
         <v>6</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="18">
         <v>6</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>9</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>8</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="23" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="11" t="s">
+      <c r="I24" s="16"/>
+      <c r="J24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="10">
         <v>240</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="10">
         <v>175</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
